--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2227,28 +2227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2998.000185472813</v>
+        <v>3291.587492745703</v>
       </c>
       <c r="AB2" t="n">
-        <v>4101.996116197706</v>
+        <v>4503.695222166375</v>
       </c>
       <c r="AC2" t="n">
-        <v>3710.507364055351</v>
+        <v>4073.86887113859</v>
       </c>
       <c r="AD2" t="n">
-        <v>2998000.185472813</v>
+        <v>3291587.492745703</v>
       </c>
       <c r="AE2" t="n">
-        <v>4101996.116197706</v>
+        <v>4503695.222166375</v>
       </c>
       <c r="AF2" t="n">
         <v>2.720792489697596e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.68333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3710507.36405535</v>
+        <v>4073868.87113859</v>
       </c>
     </row>
     <row r="3">
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1064.628282246745</v>
+        <v>1221.210457153538</v>
       </c>
       <c r="AB3" t="n">
-        <v>1456.671383854969</v>
+        <v>1670.914023480463</v>
       </c>
       <c r="AC3" t="n">
-        <v>1317.648711430977</v>
+        <v>1511.444334222048</v>
       </c>
       <c r="AD3" t="n">
-        <v>1064628.282246745</v>
+        <v>1221210.457153538</v>
       </c>
       <c r="AE3" t="n">
-        <v>1456671.383854968</v>
+        <v>1670914.023480463</v>
       </c>
       <c r="AF3" t="n">
         <v>5.115376160887907e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.68333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1317648.711430977</v>
+        <v>1511444.334222048</v>
       </c>
     </row>
     <row r="4">
@@ -2439,28 +2439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>813.0824945220373</v>
+        <v>940.2659512288616</v>
       </c>
       <c r="AB4" t="n">
-        <v>1112.495339673086</v>
+        <v>1286.513356077472</v>
       </c>
       <c r="AC4" t="n">
-        <v>1006.320345851701</v>
+        <v>1163.730327006273</v>
       </c>
       <c r="AD4" t="n">
-        <v>813082.4945220373</v>
+        <v>940265.9512288616</v>
       </c>
       <c r="AE4" t="n">
-        <v>1112495.339673086</v>
+        <v>1286513.356077472</v>
       </c>
       <c r="AF4" t="n">
         <v>6.013015438604834e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.10416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1006320.345851701</v>
+        <v>1163730.327006273</v>
       </c>
     </row>
     <row r="5">
@@ -2545,28 +2545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>708.2599835257791</v>
+        <v>835.3751093950415</v>
       </c>
       <c r="AB5" t="n">
-        <v>969.0725556851969</v>
+        <v>1142.997078823088</v>
       </c>
       <c r="AC5" t="n">
-        <v>876.5856310724751</v>
+        <v>1033.911041826687</v>
       </c>
       <c r="AD5" t="n">
-        <v>708259.9835257791</v>
+        <v>835375.1093950415</v>
       </c>
       <c r="AE5" t="n">
-        <v>969072.5556851969</v>
+        <v>1142997.078823088</v>
       </c>
       <c r="AF5" t="n">
         <v>6.420964804012904e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.44166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>876585.6310724751</v>
+        <v>1033911.041826687</v>
       </c>
     </row>
     <row r="6">
@@ -2651,28 +2651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>708.8018904192284</v>
+        <v>826.1968258557041</v>
       </c>
       <c r="AB6" t="n">
-        <v>969.8140166040589</v>
+        <v>1130.438946367274</v>
       </c>
       <c r="AC6" t="n">
-        <v>877.2563280018881</v>
+        <v>1022.551439907007</v>
       </c>
       <c r="AD6" t="n">
-        <v>708801.8904192284</v>
+        <v>826196.8258557041</v>
       </c>
       <c r="AE6" t="n">
-        <v>969814.0166040589</v>
+        <v>1130438.946367274</v>
       </c>
       <c r="AF6" t="n">
         <v>6.430005233163222e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.40833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>877256.328001888</v>
+        <v>1022551.439907007</v>
       </c>
     </row>
   </sheetData>
@@ -2948,28 +2948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1858.227402765427</v>
+        <v>2080.778547991429</v>
       </c>
       <c r="AB2" t="n">
-        <v>2542.508711670866</v>
+        <v>2847.013006832669</v>
       </c>
       <c r="AC2" t="n">
-        <v>2299.855248662386</v>
+        <v>2575.29808126841</v>
       </c>
       <c r="AD2" t="n">
-        <v>1858227.402765427</v>
+        <v>2080778.547991429</v>
       </c>
       <c r="AE2" t="n">
-        <v>2542508.711670865</v>
+        <v>2847013.006832669</v>
       </c>
       <c r="AF2" t="n">
         <v>3.815385880088858e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.0125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2299855.248662386</v>
+        <v>2575298.08126841</v>
       </c>
     </row>
     <row r="3">
@@ -3054,28 +3054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>833.5285470655291</v>
+        <v>978.6684534795888</v>
       </c>
       <c r="AB3" t="n">
-        <v>1140.470530779268</v>
+        <v>1339.057353855746</v>
       </c>
       <c r="AC3" t="n">
-        <v>1031.625623982137</v>
+        <v>1211.259599382553</v>
       </c>
       <c r="AD3" t="n">
-        <v>833528.547065529</v>
+        <v>978668.4534795888</v>
       </c>
       <c r="AE3" t="n">
-        <v>1140470.530779268</v>
+        <v>1339057.353855746</v>
       </c>
       <c r="AF3" t="n">
         <v>6.175839043669811e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.80833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1031625.623982137</v>
+        <v>1211259.599382553</v>
       </c>
     </row>
     <row r="4">
@@ -3160,28 +3160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>676.2230074034026</v>
+        <v>802.0359809360273</v>
       </c>
       <c r="AB4" t="n">
-        <v>925.2381515829255</v>
+        <v>1097.381012446922</v>
       </c>
       <c r="AC4" t="n">
-        <v>836.9347209757522</v>
+        <v>992.6485088029111</v>
       </c>
       <c r="AD4" t="n">
-        <v>676223.0074034026</v>
+        <v>802035.9809360272</v>
       </c>
       <c r="AE4" t="n">
-        <v>925238.1515829256</v>
+        <v>1097381.012446922</v>
       </c>
       <c r="AF4" t="n">
         <v>6.885582425490381e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.94166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>836934.7209757521</v>
+        <v>992648.5088029112</v>
       </c>
     </row>
     <row r="5">
@@ -3266,28 +3266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>676.5787694437723</v>
+        <v>802.391742976397</v>
       </c>
       <c r="AB5" t="n">
-        <v>925.7249209016732</v>
+        <v>1097.867781765669</v>
       </c>
       <c r="AC5" t="n">
-        <v>837.3750337139033</v>
+        <v>993.0888215410624</v>
       </c>
       <c r="AD5" t="n">
-        <v>676578.7694437724</v>
+        <v>802391.742976397</v>
       </c>
       <c r="AE5" t="n">
-        <v>925724.9209016731</v>
+        <v>1097867.781765669</v>
       </c>
       <c r="AF5" t="n">
         <v>6.900008103982669e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.89166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>837375.0337139034</v>
+        <v>993088.8215410624</v>
       </c>
     </row>
   </sheetData>
@@ -3563,28 +3563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>663.750771993374</v>
+        <v>803.9473474440057</v>
       </c>
       <c r="AB2" t="n">
-        <v>908.1730888587319</v>
+        <v>1099.996228426677</v>
       </c>
       <c r="AC2" t="n">
-        <v>821.4983238869894</v>
+        <v>995.0141322400372</v>
       </c>
       <c r="AD2" t="n">
-        <v>663750.771993374</v>
+        <v>803947.3474440057</v>
       </c>
       <c r="AE2" t="n">
-        <v>908173.0888587319</v>
+        <v>1099996.228426677</v>
       </c>
       <c r="AF2" t="n">
         <v>8.441217462132875e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.39583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>821498.3238869894</v>
+        <v>995014.1322400372</v>
       </c>
     </row>
     <row r="3">
@@ -3669,28 +3669,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>660.7714515656112</v>
+        <v>791.680876114078</v>
       </c>
       <c r="AB3" t="n">
-        <v>904.0966512111261</v>
+        <v>1083.212701194548</v>
       </c>
       <c r="AC3" t="n">
-        <v>817.8109357271551</v>
+        <v>979.8324012911143</v>
       </c>
       <c r="AD3" t="n">
-        <v>660771.4515656112</v>
+        <v>791680.8761140781</v>
       </c>
       <c r="AE3" t="n">
-        <v>904096.6512111261</v>
+        <v>1083212.701194548</v>
       </c>
       <c r="AF3" t="n">
         <v>8.497595797257867e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.20833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>817810.9357271551</v>
+        <v>979832.4012911143</v>
       </c>
     </row>
   </sheetData>
@@ -3966,28 +3966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>937.4416421438448</v>
+        <v>1098.611168909205</v>
       </c>
       <c r="AB2" t="n">
-        <v>1282.649011787629</v>
+        <v>1503.168268605697</v>
       </c>
       <c r="AC2" t="n">
-        <v>1160.234790311812</v>
+        <v>1359.707998759883</v>
       </c>
       <c r="AD2" t="n">
-        <v>937441.6421438447</v>
+        <v>1098611.168909205</v>
       </c>
       <c r="AE2" t="n">
-        <v>1282649.011787629</v>
+        <v>1503168.268605697</v>
       </c>
       <c r="AF2" t="n">
         <v>6.378952102587899e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.54166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1160234.790311812</v>
+        <v>1359707.998759883</v>
       </c>
     </row>
     <row r="3">
@@ -4072,28 +4072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>651.7098911296276</v>
+        <v>774.9159829921488</v>
       </c>
       <c r="AB3" t="n">
-        <v>891.6982244547812</v>
+        <v>1060.274234810239</v>
       </c>
       <c r="AC3" t="n">
-        <v>806.5957974191343</v>
+        <v>959.0831499441841</v>
       </c>
       <c r="AD3" t="n">
-        <v>651709.8911296276</v>
+        <v>774915.9829921487</v>
       </c>
       <c r="AE3" t="n">
-        <v>891698.2244547812</v>
+        <v>1060274.234810239</v>
       </c>
       <c r="AF3" t="n">
         <v>7.865580740054495e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.39166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>806595.7974191343</v>
+        <v>959083.1499441841</v>
       </c>
     </row>
   </sheetData>
@@ -4369,28 +4369,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>680.0622160574677</v>
+        <v>828.0479416975219</v>
       </c>
       <c r="AB2" t="n">
-        <v>930.4911262373497</v>
+        <v>1132.971724727516</v>
       </c>
       <c r="AC2" t="n">
-        <v>841.6863591017542</v>
+        <v>1024.842493455324</v>
       </c>
       <c r="AD2" t="n">
-        <v>680062.2160574677</v>
+        <v>828047.9416975218</v>
       </c>
       <c r="AE2" t="n">
-        <v>930491.1262373497</v>
+        <v>1132971.724727516</v>
       </c>
       <c r="AF2" t="n">
         <v>8.958611473978266e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.64583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>841686.3591017541</v>
+        <v>1024842.493455324</v>
       </c>
     </row>
   </sheetData>
@@ -4666,28 +4666,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2078.412095518483</v>
+        <v>2321.066982151593</v>
       </c>
       <c r="AB2" t="n">
-        <v>2843.77512215867</v>
+        <v>3175.786243228338</v>
       </c>
       <c r="AC2" t="n">
-        <v>2572.369215763297</v>
+        <v>2872.693661418492</v>
       </c>
       <c r="AD2" t="n">
-        <v>2078412.095518483</v>
+        <v>2321066.982151593</v>
       </c>
       <c r="AE2" t="n">
-        <v>2843775.122158669</v>
+        <v>3175786.243228338</v>
       </c>
       <c r="AF2" t="n">
         <v>3.510851386506035e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.73333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2572369.215763297</v>
+        <v>2872693.661418492</v>
       </c>
     </row>
     <row r="3">
@@ -4772,28 +4772,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>890.6727897392071</v>
+        <v>1036.171069576343</v>
       </c>
       <c r="AB3" t="n">
-        <v>1218.657804631456</v>
+        <v>1417.734970035706</v>
       </c>
       <c r="AC3" t="n">
-        <v>1102.3508141544</v>
+        <v>1282.428334299025</v>
       </c>
       <c r="AD3" t="n">
-        <v>890672.7897392071</v>
+        <v>1036171.069576343</v>
       </c>
       <c r="AE3" t="n">
-        <v>1218657.804631456</v>
+        <v>1417734.970035706</v>
       </c>
       <c r="AF3" t="n">
         <v>5.884265756052616e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.47916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1102350.8141544</v>
+        <v>1282428.334299025</v>
       </c>
     </row>
     <row r="4">
@@ -4878,28 +4878,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>690.032138775138</v>
+        <v>816.2140464411053</v>
       </c>
       <c r="AB4" t="n">
-        <v>944.132414341614</v>
+        <v>1116.780067163075</v>
       </c>
       <c r="AC4" t="n">
-        <v>854.0257418150154</v>
+        <v>1010.196144963699</v>
       </c>
       <c r="AD4" t="n">
-        <v>690032.1387751381</v>
+        <v>816214.0464411053</v>
       </c>
       <c r="AE4" t="n">
-        <v>944132.414341614</v>
+        <v>1116780.067163075</v>
       </c>
       <c r="AF4" t="n">
         <v>6.728494998838292e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.90833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>854025.7418150154</v>
+        <v>1010196.144963699</v>
       </c>
     </row>
     <row r="5">
@@ -4984,28 +4984,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>682.6189776900442</v>
+        <v>808.8008853560113</v>
       </c>
       <c r="AB5" t="n">
-        <v>933.9894002994032</v>
+        <v>1106.637053120864</v>
       </c>
       <c r="AC5" t="n">
-        <v>844.8507627971836</v>
+        <v>1001.021165945867</v>
       </c>
       <c r="AD5" t="n">
-        <v>682618.9776900442</v>
+        <v>808800.8853560113</v>
       </c>
       <c r="AE5" t="n">
-        <v>933989.4002994032</v>
+        <v>1106637.053120864</v>
       </c>
       <c r="AF5" t="n">
         <v>6.781988323893315e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.70833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>844850.7627971836</v>
+        <v>1001021.165945867</v>
       </c>
     </row>
   </sheetData>
@@ -5281,28 +5281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>709.6693526209847</v>
+        <v>865.8569993753885</v>
       </c>
       <c r="AB2" t="n">
-        <v>971.0009166582336</v>
+        <v>1184.703745460275</v>
       </c>
       <c r="AC2" t="n">
-        <v>878.3299519807168</v>
+        <v>1071.637282735696</v>
       </c>
       <c r="AD2" t="n">
-        <v>709669.3526209847</v>
+        <v>865856.9993753885</v>
       </c>
       <c r="AE2" t="n">
-        <v>971000.9166582336</v>
+        <v>1184703.745460275</v>
       </c>
       <c r="AF2" t="n">
         <v>9.156377010142028e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.80833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>878329.9519807168</v>
+        <v>1071637.282735696</v>
       </c>
     </row>
   </sheetData>
@@ -5578,28 +5578,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1328.893454309455</v>
+        <v>1511.006566390019</v>
       </c>
       <c r="AB2" t="n">
-        <v>1818.25065082774</v>
+        <v>2067.425845039842</v>
       </c>
       <c r="AC2" t="n">
-        <v>1644.719360643556</v>
+        <v>1870.113624039637</v>
       </c>
       <c r="AD2" t="n">
-        <v>1328893.454309455</v>
+        <v>1511006.566390019</v>
       </c>
       <c r="AE2" t="n">
-        <v>1818250.65082774</v>
+        <v>2067425.845039842</v>
       </c>
       <c r="AF2" t="n">
         <v>4.891773189185681e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.17083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1644719.360643556</v>
+        <v>1870113.624039636</v>
       </c>
     </row>
     <row r="3">
@@ -5684,28 +5684,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>677.1993409320073</v>
+        <v>811.3692230647483</v>
       </c>
       <c r="AB3" t="n">
-        <v>926.5740141895578</v>
+        <v>1110.151166081021</v>
       </c>
       <c r="AC3" t="n">
-        <v>838.1430907301022</v>
+        <v>1004.199896897195</v>
       </c>
       <c r="AD3" t="n">
-        <v>677199.3409320073</v>
+        <v>811369.2230647483</v>
       </c>
       <c r="AE3" t="n">
-        <v>926574.0141895579</v>
+        <v>1110151.166081021</v>
       </c>
       <c r="AF3" t="n">
         <v>7.226737762310501e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.84166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>838143.0907301023</v>
+        <v>1004199.896897195</v>
       </c>
     </row>
     <row r="4">
@@ -5790,28 +5790,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>663.3044348727932</v>
+        <v>787.8527188330175</v>
       </c>
       <c r="AB4" t="n">
-        <v>907.5623907193491</v>
+        <v>1077.974847516221</v>
       </c>
       <c r="AC4" t="n">
-        <v>820.9459099209091</v>
+        <v>975.0944410164731</v>
       </c>
       <c r="AD4" t="n">
-        <v>663304.4348727932</v>
+        <v>787852.7188330175</v>
       </c>
       <c r="AE4" t="n">
-        <v>907562.390719349</v>
+        <v>1077974.847516221</v>
       </c>
       <c r="AF4" t="n">
         <v>7.332954001049576e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.46666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>820945.9099209091</v>
+        <v>975094.4410164731</v>
       </c>
     </row>
   </sheetData>
@@ -6087,28 +6087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1657.865774061072</v>
+        <v>1870.15559817775</v>
       </c>
       <c r="AB2" t="n">
-        <v>2268.365091946357</v>
+        <v>2558.829394868847</v>
       </c>
       <c r="AC2" t="n">
-        <v>2051.875511241398</v>
+        <v>2314.618308762175</v>
       </c>
       <c r="AD2" t="n">
-        <v>1657865.774061072</v>
+        <v>1870155.59817775</v>
       </c>
       <c r="AE2" t="n">
-        <v>2268365.091946357</v>
+        <v>2558829.394868847</v>
       </c>
       <c r="AF2" t="n">
         <v>4.138953420573921e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.58333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2051875.511241398</v>
+        <v>2314618.308762175</v>
       </c>
     </row>
     <row r="3">
@@ -6193,28 +6193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>786.3529588646477</v>
+        <v>921.3667397061815</v>
       </c>
       <c r="AB3" t="n">
-        <v>1075.922809762757</v>
+        <v>1260.654621097774</v>
       </c>
       <c r="AC3" t="n">
-        <v>973.2382468661466</v>
+        <v>1140.339513400075</v>
       </c>
       <c r="AD3" t="n">
-        <v>786352.9588646477</v>
+        <v>921366.7397061816</v>
       </c>
       <c r="AE3" t="n">
-        <v>1075922.809762757</v>
+        <v>1260654.621097774</v>
       </c>
       <c r="AF3" t="n">
         <v>6.500322798501519e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.11666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>973238.2468661466</v>
+        <v>1140339.513400075</v>
       </c>
     </row>
     <row r="4">
@@ -6299,28 +6299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>677.9803379619636</v>
+        <v>793.7602687741995</v>
       </c>
       <c r="AB4" t="n">
-        <v>927.6426087811016</v>
+        <v>1086.057817968456</v>
       </c>
       <c r="AC4" t="n">
-        <v>839.1097001536109</v>
+        <v>982.4059841132666</v>
       </c>
       <c r="AD4" t="n">
-        <v>677980.3379619636</v>
+        <v>793760.2687741995</v>
       </c>
       <c r="AE4" t="n">
-        <v>927642.6087811015</v>
+        <v>1086057.817968456</v>
       </c>
       <c r="AF4" t="n">
         <v>7.028267797364587e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.07916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>839109.7001536109</v>
+        <v>982405.9841132667</v>
       </c>
     </row>
     <row r="5">
@@ -6405,28 +6405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>678.6157514748719</v>
+        <v>794.3956822871074</v>
       </c>
       <c r="AB5" t="n">
-        <v>928.5120095819283</v>
+        <v>1086.927218769282</v>
       </c>
       <c r="AC5" t="n">
-        <v>839.8961265622185</v>
+        <v>983.1924105218742</v>
       </c>
       <c r="AD5" t="n">
-        <v>678615.7514748719</v>
+        <v>794395.6822871075</v>
       </c>
       <c r="AE5" t="n">
-        <v>928512.0095819283</v>
+        <v>1086927.218769282</v>
       </c>
       <c r="AF5" t="n">
         <v>7.041381815765834e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.03333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>839896.1265622184</v>
+        <v>983192.4105218742</v>
       </c>
     </row>
   </sheetData>
@@ -6702,28 +6702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2636.374211473969</v>
+        <v>2909.665259986002</v>
       </c>
       <c r="AB2" t="n">
-        <v>3607.203504760451</v>
+        <v>3981.132374084772</v>
       </c>
       <c r="AC2" t="n">
-        <v>3262.937065007893</v>
+        <v>3601.178687856352</v>
       </c>
       <c r="AD2" t="n">
-        <v>2636374.211473969</v>
+        <v>2909665.259986002</v>
       </c>
       <c r="AE2" t="n">
-        <v>3607203.504760451</v>
+        <v>3981132.374084772</v>
       </c>
       <c r="AF2" t="n">
         <v>2.968798286085927e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.97083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3262937.065007893</v>
+        <v>3601178.687856351</v>
       </c>
     </row>
     <row r="3">
@@ -6808,28 +6808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1001.65014880238</v>
+        <v>1157.787177593158</v>
       </c>
       <c r="AB3" t="n">
-        <v>1370.501923277231</v>
+        <v>1584.135494348332</v>
       </c>
       <c r="AC3" t="n">
-        <v>1239.703143231181</v>
+        <v>1432.947826115857</v>
       </c>
       <c r="AD3" t="n">
-        <v>1001650.14880238</v>
+        <v>1157787.177593158</v>
       </c>
       <c r="AE3" t="n">
-        <v>1370501.923277231</v>
+        <v>1584135.494348333</v>
       </c>
       <c r="AF3" t="n">
         <v>5.353450899041734e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.92916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1239703.143231181</v>
+        <v>1432947.826115857</v>
       </c>
     </row>
     <row r="4">
@@ -6914,28 +6914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>764.6727896073285</v>
+        <v>891.5896443053539</v>
       </c>
       <c r="AB4" t="n">
-        <v>1046.259045723329</v>
+        <v>1219.912285497627</v>
       </c>
       <c r="AC4" t="n">
-        <v>946.4055508332873</v>
+        <v>1103.485569127379</v>
       </c>
       <c r="AD4" t="n">
-        <v>764672.7896073285</v>
+        <v>891589.6443053539</v>
       </c>
       <c r="AE4" t="n">
-        <v>1046259.045723329</v>
+        <v>1219912.285497627</v>
       </c>
       <c r="AF4" t="n">
         <v>6.255242606408508e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.61666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>946405.5508332873</v>
+        <v>1103485.569127379</v>
       </c>
     </row>
     <row r="5">
@@ -7020,28 +7020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>698.7788804709528</v>
+        <v>825.5600845237122</v>
       </c>
       <c r="AB5" t="n">
-        <v>956.1000922088373</v>
+        <v>1129.567728785798</v>
       </c>
       <c r="AC5" t="n">
-        <v>864.8512413033324</v>
+        <v>1021.763370108745</v>
       </c>
       <c r="AD5" t="n">
-        <v>698778.8804709528</v>
+        <v>825560.0845237123</v>
       </c>
       <c r="AE5" t="n">
-        <v>956100.0922088373</v>
+        <v>1129567.728785798</v>
       </c>
       <c r="AF5" t="n">
         <v>6.539816535385657e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>864851.2413033324</v>
+        <v>1021763.370108745</v>
       </c>
     </row>
     <row r="6">
@@ -7126,28 +7126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>700.9406019550172</v>
+        <v>827.8232912342618</v>
       </c>
       <c r="AB6" t="n">
-        <v>959.0578549117552</v>
+        <v>1132.664348052805</v>
       </c>
       <c r="AC6" t="n">
-        <v>867.5267192851301</v>
+        <v>1024.564452379042</v>
       </c>
       <c r="AD6" t="n">
-        <v>700940.6019550172</v>
+        <v>827823.2912342618</v>
       </c>
       <c r="AE6" t="n">
-        <v>959057.8549117552</v>
+        <v>1132664.348052805</v>
       </c>
       <c r="AF6" t="n">
         <v>6.539431976022174e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.50416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>867526.71928513</v>
+        <v>1024564.452379041</v>
       </c>
     </row>
   </sheetData>
@@ -7423,28 +7423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1057.948879164566</v>
+        <v>1229.168584325009</v>
       </c>
       <c r="AB2" t="n">
-        <v>1447.532329883464</v>
+        <v>1681.802684164262</v>
       </c>
       <c r="AC2" t="n">
-        <v>1309.381875943771</v>
+        <v>1521.293796412516</v>
       </c>
       <c r="AD2" t="n">
-        <v>1057948.879164566</v>
+        <v>1229168.584325009</v>
       </c>
       <c r="AE2" t="n">
-        <v>1447532.329883464</v>
+        <v>1681802.684164262</v>
       </c>
       <c r="AF2" t="n">
         <v>5.819559355847494e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.325</v>
       </c>
       <c r="AH2" t="n">
-        <v>1309381.875943771</v>
+        <v>1521293.796412516</v>
       </c>
     </row>
     <row r="3">
@@ -7529,28 +7529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>657.6483548341135</v>
+        <v>781.3376808860879</v>
       </c>
       <c r="AB3" t="n">
-        <v>899.8234924817872</v>
+        <v>1069.060685174043</v>
       </c>
       <c r="AC3" t="n">
-        <v>813.9456012695283</v>
+        <v>967.0310338171271</v>
       </c>
       <c r="AD3" t="n">
-        <v>657648.3548341135</v>
+        <v>781337.6808860879</v>
       </c>
       <c r="AE3" t="n">
-        <v>899823.4924817872</v>
+        <v>1069060.685174043</v>
       </c>
       <c r="AF3" t="n">
         <v>7.676314721626993e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.02083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>813945.6012695283</v>
+        <v>967031.0338171271</v>
       </c>
     </row>
     <row r="4">
@@ -7635,28 +7635,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>660.0899630245351</v>
+        <v>783.7792890765096</v>
       </c>
       <c r="AB4" t="n">
-        <v>903.1642085240733</v>
+        <v>1072.401401216329</v>
       </c>
       <c r="AC4" t="n">
-        <v>816.967484061463</v>
+        <v>970.0529166090618</v>
       </c>
       <c r="AD4" t="n">
-        <v>660089.9630245351</v>
+        <v>783779.2890765097</v>
       </c>
       <c r="AE4" t="n">
-        <v>903164.2085240732</v>
+        <v>1072401.401216329</v>
       </c>
       <c r="AF4" t="n">
         <v>7.676314721626993e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.02083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>816967.484061463</v>
+        <v>970052.9166090618</v>
       </c>
     </row>
   </sheetData>
@@ -7932,28 +7932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>724.9915589112744</v>
+        <v>865.9040742144914</v>
       </c>
       <c r="AB2" t="n">
-        <v>991.9654352726418</v>
+        <v>1184.768155331931</v>
       </c>
       <c r="AC2" t="n">
-        <v>897.2936463624528</v>
+        <v>1071.695545419601</v>
       </c>
       <c r="AD2" t="n">
-        <v>724991.5589112744</v>
+        <v>865904.0742144914</v>
       </c>
       <c r="AE2" t="n">
-        <v>991965.4352726418</v>
+        <v>1184768.155331931</v>
       </c>
       <c r="AF2" t="n">
         <v>7.80778897253939e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.09166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>897293.6463624528</v>
+        <v>1071695.545419601</v>
       </c>
     </row>
     <row r="3">
@@ -8038,28 +8038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>653.2592514363487</v>
+        <v>784.7708333709189</v>
       </c>
       <c r="AB3" t="n">
-        <v>893.8181275793894</v>
+        <v>1073.758075863787</v>
       </c>
       <c r="AC3" t="n">
-        <v>808.5133799648327</v>
+        <v>971.280112132271</v>
       </c>
       <c r="AD3" t="n">
-        <v>653259.2514363487</v>
+        <v>784770.8333709189</v>
       </c>
       <c r="AE3" t="n">
-        <v>893818.1275793894</v>
+        <v>1073758.075863787</v>
       </c>
       <c r="AF3" t="n">
         <v>8.276594286816e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.44166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>808513.3799648327</v>
+        <v>971280.1121322711</v>
       </c>
     </row>
   </sheetData>
@@ -13748,28 +13748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>667.8524791430489</v>
+        <v>807.3405051813481</v>
       </c>
       <c r="AB2" t="n">
-        <v>913.7852255354654</v>
+        <v>1104.638896538463</v>
       </c>
       <c r="AC2" t="n">
-        <v>826.5748461159787</v>
+        <v>999.2137106232603</v>
       </c>
       <c r="AD2" t="n">
-        <v>667852.4791430489</v>
+        <v>807340.5051813482</v>
       </c>
       <c r="AE2" t="n">
-        <v>913785.2255354654</v>
+        <v>1104638.896538463</v>
       </c>
       <c r="AF2" t="n">
         <v>8.72379052585684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.24166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>826574.8461159788</v>
+        <v>999213.7106232604</v>
       </c>
     </row>
     <row r="3">
@@ -13854,28 +13854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>671.2923579022824</v>
+        <v>810.7803839405819</v>
       </c>
       <c r="AB3" t="n">
-        <v>918.4918194105893</v>
+        <v>1109.345490413587</v>
       </c>
       <c r="AC3" t="n">
-        <v>830.8322492774068</v>
+        <v>1003.471113784688</v>
       </c>
       <c r="AD3" t="n">
-        <v>671292.3579022825</v>
+        <v>810780.3839405819</v>
       </c>
       <c r="AE3" t="n">
-        <v>918491.8194105893</v>
+        <v>1109345.490413587</v>
       </c>
       <c r="AF3" t="n">
         <v>8.721953938377712e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.24583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>830832.2492774068</v>
+        <v>1003471.113784688</v>
       </c>
     </row>
   </sheetData>
@@ -14151,28 +14151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>772.5878870159306</v>
+        <v>945.7903151887399</v>
       </c>
       <c r="AB2" t="n">
-        <v>1057.088831187232</v>
+        <v>1294.072034565115</v>
       </c>
       <c r="AC2" t="n">
-        <v>956.2017567722146</v>
+        <v>1170.567615827728</v>
       </c>
       <c r="AD2" t="n">
-        <v>772587.8870159306</v>
+        <v>945790.3151887399</v>
       </c>
       <c r="AE2" t="n">
-        <v>1057088.831187232</v>
+        <v>1294072.034565115</v>
       </c>
       <c r="AF2" t="n">
         <v>9.223934519016494e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.575</v>
       </c>
       <c r="AH2" t="n">
-        <v>956201.7567722145</v>
+        <v>1170567.615827728</v>
       </c>
     </row>
   </sheetData>
@@ -14448,28 +14448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1482.599866756286</v>
+        <v>1674.941250792926</v>
       </c>
       <c r="AB2" t="n">
-        <v>2028.558545385829</v>
+        <v>2291.728512527746</v>
       </c>
       <c r="AC2" t="n">
-        <v>1834.955764914005</v>
+        <v>2073.009159753266</v>
       </c>
       <c r="AD2" t="n">
-        <v>1482599.866756286</v>
+        <v>1674941.250792926</v>
       </c>
       <c r="AE2" t="n">
-        <v>2028558.545385829</v>
+        <v>2291728.512527746</v>
       </c>
       <c r="AF2" t="n">
         <v>4.501514854798987e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.25833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1834955.764914005</v>
+        <v>2073009.159753266</v>
       </c>
     </row>
     <row r="3">
@@ -14554,28 +14554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>728.159612056946</v>
+        <v>853.1579497480651</v>
       </c>
       <c r="AB3" t="n">
-        <v>996.3001053511906</v>
+        <v>1167.328345517642</v>
       </c>
       <c r="AC3" t="n">
-        <v>901.2146216124523</v>
+        <v>1055.92016657706</v>
       </c>
       <c r="AD3" t="n">
-        <v>728159.612056946</v>
+        <v>853157.9497480651</v>
       </c>
       <c r="AE3" t="n">
-        <v>996300.1053511907</v>
+        <v>1167328.345517642</v>
       </c>
       <c r="AF3" t="n">
         <v>6.864712285093981e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.4</v>
       </c>
       <c r="AH3" t="n">
-        <v>901214.6216124523</v>
+        <v>1055920.16657706</v>
       </c>
     </row>
     <row r="4">
@@ -14660,28 +14660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>669.6676050027227</v>
+        <v>794.631777275061</v>
       </c>
       <c r="AB4" t="n">
-        <v>916.2687608143724</v>
+        <v>1087.250254347576</v>
       </c>
       <c r="AC4" t="n">
-        <v>828.8213562735306</v>
+        <v>983.4846160379587</v>
       </c>
       <c r="AD4" t="n">
-        <v>669667.6050027227</v>
+        <v>794631.777275061</v>
       </c>
       <c r="AE4" t="n">
-        <v>916268.7608143725</v>
+        <v>1087250.254347576</v>
       </c>
       <c r="AF4" t="n">
         <v>7.180066258398577e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.24166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>828821.3562735305</v>
+        <v>983484.6160379588</v>
       </c>
     </row>
   </sheetData>
@@ -14957,28 +14957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2338.89551210537</v>
+        <v>2592.005895303547</v>
       </c>
       <c r="AB2" t="n">
-        <v>3200.180024450327</v>
+        <v>3546.496817184113</v>
       </c>
       <c r="AC2" t="n">
-        <v>2894.759334397541</v>
+        <v>3208.024138491472</v>
       </c>
       <c r="AD2" t="n">
-        <v>2338895.51210537</v>
+        <v>2592005.895303547</v>
       </c>
       <c r="AE2" t="n">
-        <v>3200180.024450327</v>
+        <v>3546496.817184113</v>
       </c>
       <c r="AF2" t="n">
         <v>3.229596012377262e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.70416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2894759.334397541</v>
+        <v>3208024.138491472</v>
       </c>
     </row>
     <row r="3">
@@ -15063,28 +15063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>952.9102142114676</v>
+        <v>1098.853660879381</v>
       </c>
       <c r="AB3" t="n">
-        <v>1303.813794515787</v>
+        <v>1503.500056817282</v>
       </c>
       <c r="AC3" t="n">
-        <v>1179.379635881354</v>
+        <v>1360.008121570223</v>
       </c>
       <c r="AD3" t="n">
-        <v>952910.2142114677</v>
+        <v>1098853.660879381</v>
       </c>
       <c r="AE3" t="n">
-        <v>1303813.794515787</v>
+        <v>1503500.056817282</v>
       </c>
       <c r="AF3" t="n">
         <v>5.597258952447923e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.25833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1179379.635881354</v>
+        <v>1360008.121570223</v>
       </c>
     </row>
     <row r="4">
@@ -15169,28 +15169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>727.1550734351449</v>
+        <v>853.6258625171387</v>
       </c>
       <c r="AB4" t="n">
-        <v>994.9256512917261</v>
+        <v>1167.968564411143</v>
       </c>
       <c r="AC4" t="n">
-        <v>899.9713435193648</v>
+        <v>1056.499283877919</v>
       </c>
       <c r="AD4" t="n">
-        <v>727155.073435145</v>
+        <v>853625.8625171387</v>
       </c>
       <c r="AE4" t="n">
-        <v>994925.6512917262</v>
+        <v>1167968.564411143</v>
       </c>
       <c r="AF4" t="n">
         <v>6.509893970184325e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.15416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>899971.3435193648</v>
+        <v>1056499.283877918</v>
       </c>
     </row>
     <row r="5">
@@ -15275,28 +15275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>691.6569103217065</v>
+        <v>818.1950192114048</v>
       </c>
       <c r="AB5" t="n">
-        <v>946.3554984514907</v>
+        <v>1119.490521501749</v>
       </c>
       <c r="AC5" t="n">
-        <v>856.0366578975638</v>
+        <v>1012.647917344437</v>
       </c>
       <c r="AD5" t="n">
-        <v>691656.9103217066</v>
+        <v>818195.0192114047</v>
       </c>
       <c r="AE5" t="n">
-        <v>946355.4984514907</v>
+        <v>1119490.521501749</v>
       </c>
       <c r="AF5" t="n">
         <v>6.652959924730427e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.61666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>856036.6578975639</v>
+        <v>1012647.917344437</v>
       </c>
     </row>
   </sheetData>
@@ -15572,28 +15572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>907.8517354106689</v>
+        <v>1115.499965219843</v>
       </c>
       <c r="AB2" t="n">
-        <v>1242.162795980744</v>
+        <v>1526.276264799018</v>
       </c>
       <c r="AC2" t="n">
-        <v>1123.612522118775</v>
+        <v>1380.610600228791</v>
       </c>
       <c r="AD2" t="n">
-        <v>907851.7354106689</v>
+        <v>1115499.965219843</v>
       </c>
       <c r="AE2" t="n">
-        <v>1242162.795980744</v>
+        <v>1526276.264799018</v>
       </c>
       <c r="AF2" t="n">
         <v>8.909065760688767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.59583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1123612.522118775</v>
+        <v>1380610.600228791</v>
       </c>
     </row>
   </sheetData>
@@ -15869,28 +15869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>823.8407271316155</v>
+        <v>974.8962874810672</v>
       </c>
       <c r="AB2" t="n">
-        <v>1127.215228149237</v>
+        <v>1333.89610992035</v>
       </c>
       <c r="AC2" t="n">
-        <v>1019.635388831182</v>
+        <v>1206.590937324499</v>
       </c>
       <c r="AD2" t="n">
-        <v>823840.7271316155</v>
+        <v>974896.2874810672</v>
       </c>
       <c r="AE2" t="n">
-        <v>1127215.228149236</v>
+        <v>1333896.10992035</v>
       </c>
       <c r="AF2" t="n">
         <v>7.030691750965333e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.80416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1019635.388831182</v>
+        <v>1206590.937324499</v>
       </c>
     </row>
     <row r="3">
@@ -15975,28 +15975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>646.9052054827528</v>
+        <v>779.0745501111754</v>
       </c>
       <c r="AB3" t="n">
-        <v>885.1242415849562</v>
+        <v>1065.964169805525</v>
       </c>
       <c r="AC3" t="n">
-        <v>800.6492262477626</v>
+        <v>964.2300455293932</v>
       </c>
       <c r="AD3" t="n">
-        <v>646905.2054827528</v>
+        <v>779074.5501111754</v>
       </c>
       <c r="AE3" t="n">
-        <v>885124.2415849562</v>
+        <v>1065964.169805525</v>
       </c>
       <c r="AF3" t="n">
         <v>8.068271102900772e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.84583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>800649.2262477626</v>
+        <v>964230.0455293932</v>
       </c>
     </row>
   </sheetData>
@@ -16272,28 +16272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1187.80052350795</v>
+        <v>1359.722266784445</v>
       </c>
       <c r="AB2" t="n">
-        <v>1625.201078324323</v>
+        <v>1860.431992127239</v>
       </c>
       <c r="AC2" t="n">
-        <v>1470.094168393088</v>
+        <v>1682.874973931315</v>
       </c>
       <c r="AD2" t="n">
-        <v>1187800.52350795</v>
+        <v>1359722.266784445</v>
       </c>
       <c r="AE2" t="n">
-        <v>1625201.078324323</v>
+        <v>1860431.992127239</v>
       </c>
       <c r="AF2" t="n">
         <v>5.32816355919187e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.19583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1470094.168393089</v>
+        <v>1682874.973931315</v>
       </c>
     </row>
     <row r="3">
@@ -16378,28 +16378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>654.0815672363441</v>
+        <v>778.2958905749325</v>
       </c>
       <c r="AB3" t="n">
-        <v>894.9432563349559</v>
+        <v>1064.898773476003</v>
       </c>
       <c r="AC3" t="n">
-        <v>809.531128011096</v>
+        <v>963.2663291302681</v>
       </c>
       <c r="AD3" t="n">
-        <v>654081.5672363441</v>
+        <v>778295.8905749326</v>
       </c>
       <c r="AE3" t="n">
-        <v>894943.2563349559</v>
+        <v>1064898.773476003</v>
       </c>
       <c r="AF3" t="n">
         <v>7.505531414498842e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.69583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>809531.128011096</v>
+        <v>963266.3291302681</v>
       </c>
     </row>
     <row r="4">
@@ -16484,28 +16484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>656.2735563092185</v>
+        <v>780.4878796478069</v>
       </c>
       <c r="AB4" t="n">
-        <v>897.9424324881957</v>
+        <v>1067.897949629242</v>
       </c>
       <c r="AC4" t="n">
-        <v>812.2440670016407</v>
+        <v>965.9792681208125</v>
       </c>
       <c r="AD4" t="n">
-        <v>656273.5563092185</v>
+        <v>780487.879647807</v>
       </c>
       <c r="AE4" t="n">
-        <v>897942.4324881957</v>
+        <v>1067897.949629243</v>
       </c>
       <c r="AF4" t="n">
         <v>7.500902656303038e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.7125</v>
       </c>
       <c r="AH4" t="n">
-        <v>812244.0670016407</v>
+        <v>965979.2681208126</v>
       </c>
     </row>
   </sheetData>
